--- a/biology/Médecine/Hypokaliémie/Hypokaliémie.xlsx
+++ b/biology/Médecine/Hypokaliémie/Hypokaliémie.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Hypokali%C3%A9mie</t>
+          <t>Hypokaliémie</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'hypokaliémie est un trouble hydroélectrolytique défini par un défaut de potassium dans le plasma sanguin : son diagnostic positif est affirmé par le ionogramme plasmatique lorsque la kaliémie est inférieure à 3,5 mmol/L[1]. Comme l'hyperkaliémie, elle peut menacer la vie par la survenue de troubles du rythme cardiaque si elle n'est pas traitée.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'hypokaliémie est un trouble hydroélectrolytique défini par un défaut de potassium dans le plasma sanguin : son diagnostic positif est affirmé par le ionogramme plasmatique lorsque la kaliémie est inférieure à 3,5 mmol/L. Comme l'hyperkaliémie, elle peut menacer la vie par la survenue de troubles du rythme cardiaque si elle n'est pas traitée.
 </t>
         </is>
       </c>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Hypokali%C3%A9mie</t>
+          <t>Hypokaliémie</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,9 +523,11 @@
           <t>Statistiques</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Une hypokaliémie modérée peut se voir dans une population générale adulte avec une prévalence pouvant atteindre 3 %[2]. Elle est plus fréquente en milieu hospitalier.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Une hypokaliémie modérée peut se voir dans une population générale adulte avec une prévalence pouvant atteindre 3 %. Elle est plus fréquente en milieu hospitalier.
 </t>
         </is>
       </c>
@@ -524,7 +538,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Hypokali%C3%A9mie</t>
+          <t>Hypokaliémie</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -542,7 +556,9 @@
           <t>Causes</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>La cause d'hypokaliémie la plus fréquente est la perte digestive de potassium, lors de diarrhées aiguës et de vomissements ou à la suite d'aspirations digestives (pertes de potassium et de chlore : l'acide gastrique est de l'acide chlorhydrique). La perte en potassium provenant de troubles digestifs est associée le plus souvent à une alcalose qui elle-même aggrave la chute du taux de potassium, tout en favorisant son élimination dans les urines avec les bicarbonates. L'alcalose, trouble de l'équilibre acido-basique de l'organisme, est due à une baisse de l'acidité dans le plasma sanguin (partie liquidienne du sang) et d'autres liquides de l'organisme comme les liquides interstitiels (liquide dans lequel baignent les cellules) à l'exception du liquide situé dans les vaisseaux.
 La seconde cause est la perte urinaire de potassium, secondaire à la prise de certains médicaments dont les diurétiques thiazidiques et ceux de l'anse (furosémide).
@@ -554,7 +570,7 @@
 alcalose ;
 insulinothérapie (par passage du potassium extra-cellulaire en intra-cellulaire) ;
 traitement par Bêta-2-mimétiques ;
-traitement des anémies mégaloblastiques par la vitamine B12 ou par les folates par consommation du potassium par la régénérescence cellulaire[1].</t>
+traitement des anémies mégaloblastiques par la vitamine B12 ou par les folates par consommation du potassium par la régénérescence cellulaire.</t>
         </is>
       </c>
     </row>
@@ -564,7 +580,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Hypokali%C3%A9mie</t>
+          <t>Hypokaliémie</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -582,7 +598,9 @@
           <t>Symptômes</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Comme pour l'hyperkaliémie, les signes cliniques d'hypokaliémie ne sont pas spécifiques.
 Cependant, on doit être alerté en priorité par :
@@ -608,7 +626,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Hypokali%C3%A9mie</t>
+          <t>Hypokaliémie</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -626,7 +644,9 @@
           <t>Examens complémentaires</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Le diagnostic est fait par prélèvement sanguin veineux pour un ionogramme sanguin. Une hypokaliémie peut parfois être masquée par la lyse cellulaire dans le tube de prélèvement.
 Un ionogramme urinaire peut aider à distinguer les fuites rénales en potassium (hyperkaliurèse).
@@ -647,7 +667,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Hypokali%C3%A9mie</t>
+          <t>Hypokaliémie</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -665,10 +685,12 @@
           <t>Traitement</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t xml:space="preserve">La première étape du traitement est de déterminer la cause de l'hypokaliémie et de faire cesser les pertes de potassium ; par exemple en stoppant une perte digestive par le biais du traitement de diarrhées ou de vomissements ou en stoppant une perte rénale en arrêtant un traitement par diurétique.
-La deuxième étape du traitement est d'apporter du potassium[3] - et du magnésium en cas d'hypomagnésémie associée[4]. Le mode d'administration (oral ou en intraveineux) de la supplémentation potassique dépend du degré d'urgence de la situation, déterminée par la clinique et l’électrocardiogramme. En l'absence de caractère urgent, la supplémentation se fait par voie orale, par l'alimentation (fruits et les légumes frais et secs) et/ou par du chlorure de potassium médicamenteux. En situation d'urgence la supplémentation se fait par voie intraveineuse, le chlorure de potassium est le sel de choix, car c'est celui qui apporte le plus de potassium (13 mmol/g). En injectable, il ne faut pas dépasser un débit de 1 gramme de potassium par heure et faire la perfusion sous contrôle d'un scope ECG.
+La deuxième étape du traitement est d'apporter du potassium - et du magnésium en cas d'hypomagnésémie associée. Le mode d'administration (oral ou en intraveineux) de la supplémentation potassique dépend du degré d'urgence de la situation, déterminée par la clinique et l’électrocardiogramme. En l'absence de caractère urgent, la supplémentation se fait par voie orale, par l'alimentation (fruits et les légumes frais et secs) et/ou par du chlorure de potassium médicamenteux. En situation d'urgence la supplémentation se fait par voie intraveineuse, le chlorure de potassium est le sel de choix, car c'est celui qui apporte le plus de potassium (13 mmol/g). En injectable, il ne faut pas dépasser un débit de 1 gramme de potassium par heure et faire la perfusion sous contrôle d'un scope ECG.
 En cas de fuites rénales, les diurétiques antikaliurétiques, dits diurétiques épargneurs de potassium, sont intéressants à condition de respecter la contre-indication formelle qu'est l'insuffisance rénale sévère (DFG &lt; 30 ml/min).
 </t>
         </is>
